--- a/app/static/sheets/sms_phone_numbers.xlsx
+++ b/app/static/sheets/sms_phone_numbers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/speechdata/repositories/cynergy/curie/app/static/sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD1BEC4-6308-6E44-BD24-98B00A2F92A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F9E9B6-3E99-3F48-BB53-9C27C90BA19C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -111,7 +111,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -414,17 +414,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C12" sqref="C11:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="66.83203125" customWidth="1"/>
-    <col min="3" max="3" width="72.83203125" customWidth="1"/>
+    <col min="2" max="2" width="66.83203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="72.83203125" style="6" customWidth="1"/>
     <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.5" bestFit="1" customWidth="1"/>
@@ -432,32 +432,21 @@
     <col min="8" max="9" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
     </row>
-    <row r="2" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="2"/>
@@ -465,7 +454,7 @@
       <c r="F2" s="2"/>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
     </row>
   </sheetData>
